--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema3e-Plxnd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema3e-Plxnd1.xlsx
@@ -546,10 +546,10 @@
         <v>0.405393</v>
       </c>
       <c r="I2">
-        <v>0.1435196772981866</v>
+        <v>0.1105181328928525</v>
       </c>
       <c r="J2">
-        <v>0.1435196772981866</v>
+        <v>0.1105181328928525</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>144.283282</v>
+        <v>150.538648</v>
       </c>
       <c r="N2">
-        <v>432.849846</v>
+        <v>451.615944</v>
       </c>
       <c r="O2">
-        <v>0.5695387292414457</v>
+        <v>0.5643166737150654</v>
       </c>
       <c r="P2">
-        <v>0.5695387292414457</v>
+        <v>0.5643166737150654</v>
       </c>
       <c r="Q2">
-        <v>19.497144179942</v>
+        <v>20.342438042888</v>
       </c>
       <c r="R2">
-        <v>175.474297619478</v>
+        <v>183.081942385992</v>
       </c>
       <c r="S2">
-        <v>0.08174001462955154</v>
+        <v>0.06236722513929411</v>
       </c>
       <c r="T2">
-        <v>0.08174001462955154</v>
+        <v>0.0623672251392941</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.405393</v>
       </c>
       <c r="I3">
-        <v>0.1435196772981866</v>
+        <v>0.1105181328928525</v>
       </c>
       <c r="J3">
-        <v>0.1435196772981866</v>
+        <v>0.1105181328928525</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>89.98324</v>
       </c>
       <c r="O3">
-        <v>0.118398887365269</v>
+        <v>0.1124385517418854</v>
       </c>
       <c r="P3">
-        <v>0.118398887365269</v>
+        <v>0.1124385517418854</v>
       </c>
       <c r="Q3">
         <v>4.053175068146667</v>
@@ -638,10 +638,10 @@
         <v>36.47857561332</v>
       </c>
       <c r="S3">
-        <v>0.01699257010712775</v>
+        <v>0.01242649880368957</v>
       </c>
       <c r="T3">
-        <v>0.01699257010712775</v>
+        <v>0.01242649880368957</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.405393</v>
       </c>
       <c r="I4">
-        <v>0.1435196772981866</v>
+        <v>0.1105181328928525</v>
       </c>
       <c r="J4">
-        <v>0.1435196772981866</v>
+        <v>0.1105181328928525</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.60894133333333</v>
+        <v>33.76251433333334</v>
       </c>
       <c r="N4">
-        <v>94.826824</v>
+        <v>101.287543</v>
       </c>
       <c r="O4">
-        <v>0.1247720181445143</v>
+        <v>0.1265638428268858</v>
       </c>
       <c r="P4">
-        <v>0.1247720181445143</v>
+        <v>0.1265638428268858</v>
       </c>
       <c r="Q4">
-        <v>4.271347851314667</v>
+        <v>4.562362324377667</v>
       </c>
       <c r="R4">
-        <v>38.442130661832</v>
+        <v>41.061260919399</v>
       </c>
       <c r="S4">
-        <v>0.01790723977994417</v>
+        <v>0.01398759960097187</v>
       </c>
       <c r="T4">
-        <v>0.01790723977994417</v>
+        <v>0.01398759960097186</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.405393</v>
       </c>
       <c r="I5">
-        <v>0.1435196772981866</v>
+        <v>0.1105181328928525</v>
       </c>
       <c r="J5">
-        <v>0.1435196772981866</v>
+        <v>0.1105181328928525</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.67461933333333</v>
+        <v>17.946055</v>
       </c>
       <c r="N5">
-        <v>44.023858</v>
+        <v>53.838165</v>
       </c>
       <c r="O5">
-        <v>0.05792607384137975</v>
+        <v>0.06727347560546457</v>
       </c>
       <c r="P5">
-        <v>0.05792607384137975</v>
+        <v>0.06727347560546457</v>
       </c>
       <c r="Q5">
-        <v>1.982995985132667</v>
+        <v>2.425068358205</v>
       </c>
       <c r="R5">
-        <v>17.846963866194</v>
+        <v>21.825615223845</v>
       </c>
       <c r="S5">
-        <v>0.008313531424865749</v>
+        <v>0.007434938917128807</v>
       </c>
       <c r="T5">
-        <v>0.008313531424865749</v>
+        <v>0.007434938917128806</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.405393</v>
       </c>
       <c r="I6">
-        <v>0.1435196772981866</v>
+        <v>0.1105181328928525</v>
       </c>
       <c r="J6">
-        <v>0.1435196772981866</v>
+        <v>0.1105181328928525</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.77231833333333</v>
+        <v>34.52108433333333</v>
       </c>
       <c r="N6">
-        <v>98.31695499999999</v>
+        <v>103.563253</v>
       </c>
       <c r="O6">
-        <v>0.1293642914073912</v>
+        <v>0.1294074561106987</v>
       </c>
       <c r="P6">
-        <v>0.1293642914073912</v>
+        <v>0.1294074561106987</v>
       </c>
       <c r="Q6">
-        <v>4.428556148701666</v>
+        <v>4.664868647047667</v>
       </c>
       <c r="R6">
-        <v>39.857005338315</v>
+        <v>41.983817823429</v>
       </c>
       <c r="S6">
-        <v>0.01856632135669736</v>
+        <v>0.01430187043176819</v>
       </c>
       <c r="T6">
-        <v>0.01856632135669736</v>
+        <v>0.01430187043176818</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8064193333333334</v>
+        <v>1.087573333333333</v>
       </c>
       <c r="H7">
-        <v>2.419258</v>
+        <v>3.26272</v>
       </c>
       <c r="I7">
-        <v>0.8564803227018134</v>
+        <v>0.8894818671071475</v>
       </c>
       <c r="J7">
-        <v>0.8564803227018134</v>
+        <v>0.8894818671071474</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>144.283282</v>
+        <v>150.538648</v>
       </c>
       <c r="N7">
-        <v>432.849846</v>
+        <v>451.615944</v>
       </c>
       <c r="O7">
-        <v>0.5695387292414457</v>
+        <v>0.5643166737150654</v>
       </c>
       <c r="P7">
-        <v>0.5695387292414457</v>
+        <v>0.5643166737150654</v>
       </c>
       <c r="Q7">
-        <v>116.3528280815853</v>
+        <v>163.7218192008533</v>
       </c>
       <c r="R7">
-        <v>1047.175452734268</v>
+        <v>1473.49637280768</v>
       </c>
       <c r="S7">
-        <v>0.4877987146118941</v>
+        <v>0.5019494485757714</v>
       </c>
       <c r="T7">
-        <v>0.4877987146118941</v>
+        <v>0.5019494485757713</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8064193333333334</v>
+        <v>1.087573333333333</v>
       </c>
       <c r="H8">
-        <v>2.419258</v>
+        <v>3.26272</v>
       </c>
       <c r="I8">
-        <v>0.8564803227018134</v>
+        <v>0.8894818671071475</v>
       </c>
       <c r="J8">
-        <v>0.8564803227018134</v>
+        <v>0.8894818671071474</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>89.98324</v>
       </c>
       <c r="O8">
-        <v>0.118398887365269</v>
+        <v>0.1124385517418854</v>
       </c>
       <c r="P8">
-        <v>0.118398887365269</v>
+        <v>0.1124385517418854</v>
       </c>
       <c r="Q8">
-        <v>24.18807480399111</v>
+        <v>32.62112409031111</v>
       </c>
       <c r="R8">
-        <v>217.69267323592</v>
+        <v>293.5901168128</v>
       </c>
       <c r="S8">
-        <v>0.1014063172581412</v>
+        <v>0.1000120529381958</v>
       </c>
       <c r="T8">
-        <v>0.1014063172581412</v>
+        <v>0.1000120529381958</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8064193333333334</v>
+        <v>1.087573333333333</v>
       </c>
       <c r="H9">
-        <v>2.419258</v>
+        <v>3.26272</v>
       </c>
       <c r="I9">
-        <v>0.8564803227018134</v>
+        <v>0.8894818671071475</v>
       </c>
       <c r="J9">
-        <v>0.8564803227018134</v>
+        <v>0.8894818671071474</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.60894133333333</v>
+        <v>33.76251433333334</v>
       </c>
       <c r="N9">
-        <v>94.826824</v>
+        <v>101.287543</v>
       </c>
       <c r="O9">
-        <v>0.1247720181445143</v>
+        <v>0.1265638428268858</v>
       </c>
       <c r="P9">
-        <v>0.1247720181445143</v>
+        <v>0.1265638428268858</v>
       </c>
       <c r="Q9">
-        <v>25.49006139739911</v>
+        <v>36.71921025521778</v>
       </c>
       <c r="R9">
-        <v>229.410552576592</v>
+        <v>330.47289229696</v>
       </c>
       <c r="S9">
-        <v>0.1068647783645701</v>
+        <v>0.112576243225914</v>
       </c>
       <c r="T9">
-        <v>0.1068647783645701</v>
+        <v>0.1125762432259139</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8064193333333334</v>
+        <v>1.087573333333333</v>
       </c>
       <c r="H10">
-        <v>2.419258</v>
+        <v>3.26272</v>
       </c>
       <c r="I10">
-        <v>0.8564803227018134</v>
+        <v>0.8894818671071475</v>
       </c>
       <c r="J10">
-        <v>0.8564803227018134</v>
+        <v>0.8894818671071474</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.67461933333333</v>
+        <v>17.946055</v>
       </c>
       <c r="N10">
-        <v>44.023858</v>
+        <v>53.838165</v>
       </c>
       <c r="O10">
-        <v>0.05792607384137975</v>
+        <v>0.06727347560546457</v>
       </c>
       <c r="P10">
-        <v>0.05792607384137975</v>
+        <v>0.06727347560546457</v>
       </c>
       <c r="Q10">
-        <v>11.83389673970711</v>
+        <v>19.51765085653333</v>
       </c>
       <c r="R10">
-        <v>106.505070657364</v>
+        <v>175.6588577088</v>
       </c>
       <c r="S10">
-        <v>0.049612542416514</v>
+        <v>0.05983853668833576</v>
       </c>
       <c r="T10">
-        <v>0.049612542416514</v>
+        <v>0.05983853668833575</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8064193333333334</v>
+        <v>1.087573333333333</v>
       </c>
       <c r="H11">
-        <v>2.419258</v>
+        <v>3.26272</v>
       </c>
       <c r="I11">
-        <v>0.8564803227018134</v>
+        <v>0.8894818671071475</v>
       </c>
       <c r="J11">
-        <v>0.8564803227018134</v>
+        <v>0.8894818671071474</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>32.77231833333333</v>
+        <v>34.52108433333333</v>
       </c>
       <c r="N11">
-        <v>98.31695499999999</v>
+        <v>103.563253</v>
       </c>
       <c r="O11">
-        <v>0.1293642914073912</v>
+        <v>0.1294074561106987</v>
       </c>
       <c r="P11">
-        <v>0.1293642914073912</v>
+        <v>0.1294074561106987</v>
       </c>
       <c r="Q11">
-        <v>26.42823110215445</v>
+        <v>37.54421075868444</v>
       </c>
       <c r="R11">
-        <v>237.85407991939</v>
+        <v>337.89789682816</v>
       </c>
       <c r="S11">
-        <v>0.1107979700506938</v>
+        <v>0.1151055856789305</v>
       </c>
       <c r="T11">
-        <v>0.1107979700506938</v>
+        <v>0.1151055856789305</v>
       </c>
     </row>
   </sheetData>
